--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>SlNo</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
+  </si>
+  <si>
+    <t>Session/Practice</t>
+  </si>
+  <si>
+    <t>Attended jBPM clarification session &amp; did some task which is given by Akshay sir.</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
   </si>
 </sst>
 </file>
@@ -608,7 +617,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,13 +662,23 @@
       <c r="C4" s="11">
         <v>44440</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44441</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="18"/>
       <c r="F5" s="17"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -47,6 +47,63 @@
   </si>
   <si>
     <t>8 hrs</t>
+  </si>
+  <si>
+    <t>Attended jBPM session where we revised Email &amp; rest part &amp; Practice the same.</t>
+  </si>
+  <si>
+    <t>9 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised/Practice </t>
+  </si>
+  <si>
+    <t>Rrevised all the concept of java &amp; microservices as well as preparing for Interview.</t>
+  </si>
+  <si>
+    <t>Java assessment/ Prac.</t>
+  </si>
+  <si>
+    <t>Attended java assessment and practice java concepts.</t>
+  </si>
+  <si>
+    <t>Java assessment &amp; revised java concepts</t>
+  </si>
+  <si>
+    <t>7 hrs</t>
+  </si>
+  <si>
+    <t>Revised all the java concept whatever learnt till now</t>
+  </si>
+  <si>
+    <t>Interview/Revised</t>
+  </si>
+  <si>
+    <t>Revised java , core java and prepare for interview</t>
+  </si>
+  <si>
+    <t>Revised all the java concepts and prepare java interview questions</t>
+  </si>
+  <si>
+    <t>Practice of all java concepts and revised all java interview question/answers</t>
+  </si>
+  <si>
+    <t>Preparing for interview and reviesd all the questions/answers of interview</t>
+  </si>
+  <si>
+    <t>Practice Java, Core Java, jBPM &amp; all the things whatever learnt till now in training sess.</t>
+  </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t>Preparing myself interview and revised all the things whatever I learnt.</t>
+  </si>
+  <si>
+    <t>Flowable Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended flowable training and know about its's concepts and the working process </t>
   </si>
 </sst>
 </file>
@@ -616,15 +673,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="5" max="5" width="76.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,145 +736,285 @@
       <c r="C5" s="11">
         <v>44441</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44442</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44445</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44446</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44447</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44448</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44449</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="16">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44452</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="16">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44453</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44454</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="16">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44455</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44456</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="16">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44459</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="16">
+        <v>15</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="18"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
+      <c r="B19" s="16">
+        <v>16</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="18"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <v>17</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="1"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
+      <c r="B21" s="16">
+        <v>18</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="1"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+      <c r="B22" s="16">
+        <v>19</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="1"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
+      <c r="B23" s="16">
+        <v>20</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="1"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
+      <c r="B24" s="16">
+        <v>21</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
+      <c r="B25" s="16">
+        <v>22</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="1"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>SlNo</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Attended flowable training and know about its's concepts and the working process </t>
+  </si>
+  <si>
+    <t>Attended flowable training and did some flowable task.</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,22 +949,34 @@
       <c r="E17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>15</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="11">
+        <v>44460</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>16</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>44461</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="18"/>
       <c r="F19" s="17"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Sept_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>SlNo</t>
   </si>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t>Attended flowable training and did some flowable task.</t>
+  </si>
+  <si>
+    <t>Flowable / Practice</t>
+  </si>
+  <si>
+    <t>Attended flowable training and practice all the functions of flowable.</t>
+  </si>
+  <si>
+    <t>Flowable/Practice</t>
+  </si>
+  <si>
+    <t>Joined training &amp; learn about the working process of flowable and it's keywords.</t>
+  </si>
+  <si>
+    <t>Flowable</t>
+  </si>
+  <si>
+    <t>Training and doing the task which is given at the time of sessioon.</t>
+  </si>
+  <si>
+    <t>Attended flowable training an did some practice of all concepts.</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Practice all java concepts and flowable, jbpm as well as bpmn</t>
   </si>
 </sst>
 </file>
@@ -676,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,63 +1004,117 @@
       <c r="C19" s="11">
         <v>44461</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
+      <c r="D19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>17</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="11">
+        <v>44462</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>18</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
+      <c r="C21" s="11">
+        <v>44463</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>19</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="11">
+        <v>44466</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>20</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
+      <c r="C23" s="11">
+        <v>44467</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>21</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
+      <c r="C24" s="11">
+        <v>44468</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>22</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="11">
+        <v>44469</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
